--- a/xlsx.xlsx
+++ b/xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t xml:space="preserve">slika 16090101 /255</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t xml:space="preserve">slika 16093801 minmax_img + outlier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slika 170108 minmax_img + outlier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st. podatkov 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st. podatkov 1400</t>
   </si>
 </sst>
 </file>
@@ -176,10 +185,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,6 +630,209 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <f aca="false">E30-C30</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <f aca="false">C30/E30</f>
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <f aca="false">E31-C31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <f aca="false">C31/E31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <f aca="false">E32-C32</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <f aca="false">C32/E32</f>
+        <v>0.952380952380952</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <f aca="false">E33-C33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <f aca="false">C33/E33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <f aca="false">E34-C34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <f aca="false">C34/E34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <f aca="false">E36-C36</f>
+        <v>7</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <f aca="false">C36/E36</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <f aca="false">E37-C37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <f aca="false">C37/E37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <f aca="false">E38-C38</f>
+        <v>7</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <f aca="false">C38/E38</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <f aca="false">E39-C39</f>
+        <v>7</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <f aca="false">C39/E39</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <f aca="false">E40-C40</f>
+        <v>7</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <f aca="false">C40/E40</f>
+        <v>0.666666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/xlsx.xlsx
+++ b/xlsx.xlsx
@@ -188,10 +188,10 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.16"/>
